--- a/src/data/FOOTPRINT_PLANEJAMENTO_ESTRATEGICO.xlsx
+++ b/src/data/FOOTPRINT_PLANEJAMENTO_ESTRATEGICO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emerson\Desktop\Analytics\MATERIAIS POR TEMA\STREAMLIT\APP_FOOTPRINT_PLANEJAMENTO_ESTRATEGICO\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emerson\Desktop\Analytics\MATERIAIS POR TEMA\STREAMLIT\APP_FOOTPRINT_PLANEJAMENTO_ESTRATEGICO\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
   <si>
     <t>CÓDIGO AG</t>
   </si>
@@ -325,6 +325,15 @@
   </si>
   <si>
     <t xml:space="preserve">         Receptora 20</t>
+  </si>
+  <si>
+    <t>REGIÃO</t>
+  </si>
+  <si>
+    <t>SUPT</t>
+  </si>
+  <si>
+    <t>DICOM</t>
   </si>
 </sst>
 </file>
@@ -356,7 +365,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -379,13 +388,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -692,15 +715,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,8 +767,17 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -790,8 +820,17 @@
       <c r="N2">
         <v>-46.770276600000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -834,8 +873,17 @@
       <c r="N3">
         <v>-43.301957799999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -878,8 +926,17 @@
       <c r="N4">
         <v>-46.648072999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>18</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -922,8 +979,17 @@
       <c r="N5">
         <v>-47.4005279</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>19</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -967,8 +1033,17 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>12</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1011,8 +1086,17 @@
       <c r="N7">
         <v>-54.621886400000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>9</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1055,8 +1139,17 @@
       <c r="N8">
         <v>-43.182604900000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1099,8 +1192,17 @@
       <c r="N9">
         <v>-34.896998546294292</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1143,8 +1245,17 @@
       <c r="N10">
         <v>-34.882148880006042</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>14</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1187,8 +1298,17 @@
       <c r="N11">
         <v>-48.950681699999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>18</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1234,8 +1354,17 @@
       <c r="O12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>9</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1281,8 +1410,17 @@
       <c r="O13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1328,8 +1466,17 @@
       <c r="O14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1375,8 +1522,17 @@
       <c r="O15" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1422,8 +1578,17 @@
       <c r="O16" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>14</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1469,8 +1634,17 @@
       <c r="O17" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1516,8 +1690,17 @@
       <c r="O18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1563,8 +1746,17 @@
       <c r="O19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>13</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1610,8 +1802,17 @@
       <c r="O20" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>17</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1656,6 +1857,15 @@
       </c>
       <c r="O21" t="s">
         <v>101</v>
+      </c>
+      <c r="P21">
+        <v>7</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/FOOTPRINT_PLANEJAMENTO_ESTRATEGICO.xlsx
+++ b/src/data/FOOTPRINT_PLANEJAMENTO_ESTRATEGICO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
   <si>
     <t>CÓDIGO AG</t>
   </si>
@@ -334,6 +334,18 @@
   </si>
   <si>
     <t>DICOM</t>
+  </si>
+  <si>
+    <t>Localidade</t>
+  </si>
+  <si>
+    <t>Informações Financeiras</t>
+  </si>
+  <si>
+    <t>Imóvel</t>
+  </si>
+  <si>
+    <t>Clientes</t>
   </si>
 </sst>
 </file>
@@ -365,7 +377,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -399,17 +411,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,1160 +742,1202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="3">
         <v>224212</v>
       </c>
-      <c r="F2">
+      <c r="F3" s="3">
         <v>945220</v>
       </c>
-      <c r="G2">
+      <c r="G3" s="3">
         <v>-721008</v>
       </c>
-      <c r="H2">
+      <c r="H3" s="3">
         <v>312</v>
       </c>
-      <c r="I2">
+      <c r="I3" s="3">
         <v>14202</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M2">
+      <c r="M3" s="3">
         <v>-23.5398946</v>
       </c>
-      <c r="N2">
+      <c r="N3" s="3">
         <v>-46.770276600000003</v>
       </c>
-      <c r="P2">
+      <c r="P3" s="3">
         <v>13</v>
       </c>
-      <c r="Q2">
+      <c r="Q3" s="3">
         <v>3</v>
       </c>
-      <c r="R2">
+      <c r="R3" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="3">
         <v>723064</v>
       </c>
-      <c r="F3">
+      <c r="F4" s="3">
         <v>847008</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="3">
         <v>-123944</v>
       </c>
-      <c r="H3">
+      <c r="H4" s="3">
         <v>278</v>
       </c>
-      <c r="I3">
+      <c r="I4" s="3">
         <v>11924</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M3">
+      <c r="M4" s="3">
         <v>-22.792387699999999</v>
       </c>
-      <c r="N3">
+      <c r="N4" s="3">
         <v>-43.301957799999997</v>
       </c>
-      <c r="P3">
+      <c r="P4" s="3">
         <v>6</v>
       </c>
-      <c r="Q3">
+      <c r="Q4" s="3">
         <v>1</v>
       </c>
-      <c r="R3">
+      <c r="R4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="3">
         <v>900024</v>
       </c>
-      <c r="F4">
+      <c r="F5" s="3">
         <v>655874</v>
       </c>
-      <c r="G4">
+      <c r="G5" s="3">
         <v>244150</v>
       </c>
-      <c r="H4">
+      <c r="H5" s="3">
         <v>57</v>
       </c>
-      <c r="I4">
+      <c r="I5" s="3">
         <v>10461</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M4">
+      <c r="M5" s="3">
         <v>-23.568649300000001</v>
       </c>
-      <c r="N4">
+      <c r="N5" s="3">
         <v>-46.648072999999997</v>
       </c>
-      <c r="P4">
+      <c r="P5" s="3">
         <v>18</v>
       </c>
-      <c r="Q4">
+      <c r="Q5" s="3">
         <v>2</v>
       </c>
-      <c r="R4">
+      <c r="R5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="3">
         <v>568561</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="3">
         <v>852032</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="3">
         <v>-283471</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="3">
         <v>237</v>
       </c>
-      <c r="I5">
+      <c r="I6" s="3">
         <v>19458</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M5">
+      <c r="M6" s="3">
         <v>-22.5709312</v>
       </c>
-      <c r="N5">
+      <c r="N6" s="3">
         <v>-47.4005279</v>
       </c>
-      <c r="P5">
+      <c r="P6" s="3">
         <v>19</v>
       </c>
-      <c r="Q5">
+      <c r="Q6" s="3">
         <v>4</v>
       </c>
-      <c r="R5">
+      <c r="R6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="3">
         <v>825270</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="3">
         <v>760644</v>
       </c>
-      <c r="G6">
+      <c r="G7" s="3">
         <v>64626</v>
       </c>
-      <c r="H6">
+      <c r="H7" s="3">
         <v>475</v>
       </c>
-      <c r="I6">
+      <c r="I7" s="3">
         <v>8573</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M6" t="e">
+      <c r="M7" s="3" t="e">
         <f>-N</f>
         <v>#NAME?</v>
       </c>
-      <c r="N6">
+      <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="P6">
+      <c r="P7" s="3">
         <v>12</v>
       </c>
-      <c r="Q6">
+      <c r="Q7" s="3">
         <v>4</v>
       </c>
-      <c r="R6">
+      <c r="R7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="3">
         <v>364974</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="3">
         <v>467696</v>
       </c>
-      <c r="G7">
+      <c r="G8" s="3">
         <v>-102722</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="3">
         <v>317</v>
       </c>
-      <c r="I7">
+      <c r="I8" s="3">
         <v>11248</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M7">
+      <c r="M8" s="3">
         <v>-20.464994999999998</v>
       </c>
-      <c r="N7">
+      <c r="N8" s="3">
         <v>-54.621886400000001</v>
       </c>
-      <c r="P7">
+      <c r="P8" s="3">
         <v>9</v>
       </c>
-      <c r="Q7">
+      <c r="Q8" s="3">
         <v>4</v>
       </c>
-      <c r="R7">
+      <c r="R8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="3">
         <v>724810</v>
       </c>
-      <c r="F8">
+      <c r="F9" s="3">
         <v>532867</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="3">
         <v>191943</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="3">
         <v>392</v>
       </c>
-      <c r="I8">
+      <c r="I9" s="3">
         <v>16801</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M8">
+      <c r="M9" s="3">
         <v>-22.944181700000001</v>
       </c>
-      <c r="N8">
+      <c r="N9" s="3">
         <v>-43.182604900000001</v>
       </c>
-      <c r="P8">
+      <c r="P9" s="3">
         <v>6</v>
       </c>
-      <c r="Q8">
+      <c r="Q9" s="3">
         <v>1</v>
       </c>
-      <c r="R8">
+      <c r="R9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9">
+      <c r="E10" s="3">
         <v>186942</v>
       </c>
-      <c r="F9">
+      <c r="F10" s="3">
         <v>598640</v>
       </c>
-      <c r="G9">
+      <c r="G10" s="3">
         <v>-411698</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="3">
         <v>438</v>
       </c>
-      <c r="I9">
+      <c r="I10" s="3">
         <v>14442</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M9">
+      <c r="M10" s="3">
         <v>-8.062722149999999</v>
       </c>
-      <c r="N9">
+      <c r="N10" s="3">
         <v>-34.896998546294292</v>
       </c>
-      <c r="P9">
+      <c r="P10" s="3">
         <v>2</v>
       </c>
-      <c r="Q9">
+      <c r="Q10" s="3">
         <v>3</v>
       </c>
-      <c r="R9">
+      <c r="R10" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10">
+      <c r="E11" s="3">
         <v>186842</v>
       </c>
-      <c r="F10">
+      <c r="F11" s="3">
         <v>598540</v>
       </c>
-      <c r="G10">
+      <c r="G11" s="3">
         <v>-411798</v>
       </c>
-      <c r="H10">
+      <c r="H11" s="3">
         <v>338</v>
       </c>
-      <c r="I10">
+      <c r="I11" s="3">
         <v>14342</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M10">
+      <c r="M11" s="3">
         <v>-8.0657176499999998</v>
       </c>
-      <c r="N10">
+      <c r="N11" s="3">
         <v>-34.882148880006042</v>
       </c>
-      <c r="P10">
+      <c r="P11" s="3">
         <v>14</v>
       </c>
-      <c r="Q10">
+      <c r="Q11" s="3">
         <v>4</v>
       </c>
-      <c r="R10">
+      <c r="R11" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11">
+      <c r="E12" s="3">
         <v>186742</v>
       </c>
-      <c r="F11">
+      <c r="F12" s="3">
         <v>598440</v>
       </c>
-      <c r="G11">
+      <c r="G12" s="3">
         <v>-411898</v>
       </c>
-      <c r="H11">
+      <c r="H12" s="3">
         <v>238</v>
       </c>
-      <c r="I11">
+      <c r="I12" s="3">
         <v>14242</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M11">
+      <c r="M12" s="3">
         <v>-26.987257</v>
       </c>
-      <c r="N11">
+      <c r="N12" s="3">
         <v>-48.950681699999997</v>
       </c>
-      <c r="P11">
+      <c r="P12" s="3">
         <v>18</v>
       </c>
-      <c r="Q11">
+      <c r="Q12" s="3">
         <v>0</v>
       </c>
-      <c r="R11">
+      <c r="R12" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E12">
+      <c r="E13" s="3">
         <v>420610</v>
       </c>
-      <c r="F12">
+      <c r="F13" s="3">
         <v>512380</v>
       </c>
-      <c r="G12">
+      <c r="G13" s="3">
         <v>91770</v>
       </c>
-      <c r="H12">
+      <c r="H13" s="3">
         <v>235</v>
       </c>
-      <c r="I12">
+      <c r="I13" s="3">
         <v>10798</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L13" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M12">
+      <c r="M13" s="3">
         <v>-29.9369497</v>
       </c>
-      <c r="N12">
+      <c r="N13" s="3">
         <v>-51.169415999999998</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="P12">
+      <c r="P13" s="3">
         <v>9</v>
       </c>
-      <c r="Q12">
+      <c r="Q13" s="3">
         <v>3</v>
       </c>
-      <c r="R12">
+      <c r="R13" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13">
+      <c r="E14" s="3">
         <v>365812</v>
       </c>
-      <c r="F13">
+      <c r="F14" s="3">
         <v>768942</v>
       </c>
-      <c r="G13">
+      <c r="G14" s="3">
         <v>403130</v>
       </c>
-      <c r="H13">
+      <c r="H14" s="3">
         <v>182</v>
       </c>
-      <c r="I13">
+      <c r="I14" s="3">
         <v>9265</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M13">
+      <c r="M14" s="3">
         <v>-25.430869999999999</v>
       </c>
-      <c r="N13">
+      <c r="N14" s="3">
         <v>-49.248852300000003</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="P13">
+      <c r="P14" s="3">
         <v>1</v>
       </c>
-      <c r="Q13">
+      <c r="Q14" s="3">
         <v>2</v>
       </c>
-      <c r="R13">
+      <c r="R14" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E14">
+      <c r="E15" s="3">
         <v>642415</v>
       </c>
-      <c r="F14">
+      <c r="F15" s="3">
         <v>480320</v>
       </c>
-      <c r="G14">
+      <c r="G15" s="3">
         <v>162095</v>
       </c>
-      <c r="H14">
+      <c r="H15" s="3">
         <v>390</v>
       </c>
-      <c r="I14">
+      <c r="I15" s="3">
         <v>15309</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="M14">
+      <c r="M15" s="3">
         <v>-22.915212199999999</v>
       </c>
-      <c r="N14">
+      <c r="N15" s="3">
         <v>-47.064135800000003</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P14">
+      <c r="P15" s="3">
         <v>4</v>
       </c>
-      <c r="Q14">
+      <c r="Q15" s="3">
         <v>2</v>
       </c>
-      <c r="R14">
+      <c r="R15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E15">
+      <c r="E16" s="3">
         <v>273901</v>
       </c>
-      <c r="F15">
+      <c r="F16" s="3">
         <v>687200</v>
       </c>
-      <c r="G15">
+      <c r="G16" s="3">
         <v>413299</v>
       </c>
-      <c r="H15">
+      <c r="H16" s="3">
         <v>142</v>
       </c>
-      <c r="I15">
+      <c r="I16" s="3">
         <v>8471</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M15">
+      <c r="M16" s="3">
         <v>-22.0286075</v>
       </c>
-      <c r="N15">
+      <c r="N16" s="3">
         <v>-47.905859200000002</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P15">
+      <c r="P16" s="3">
         <v>3</v>
       </c>
-      <c r="Q15">
+      <c r="Q16" s="3">
         <v>0</v>
       </c>
-      <c r="R15">
+      <c r="R16" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E16">
+      <c r="E17" s="3">
         <v>522332</v>
       </c>
-      <c r="F16">
+      <c r="F17" s="3">
         <v>769874</v>
       </c>
-      <c r="G16">
+      <c r="G17" s="3">
         <v>247542</v>
       </c>
-      <c r="H16">
+      <c r="H17" s="3">
         <v>268</v>
       </c>
-      <c r="I16">
+      <c r="I17" s="3">
         <v>13182</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="M16">
+      <c r="M17" s="3">
         <v>-23.6149527</v>
       </c>
-      <c r="N16">
+      <c r="N17" s="3">
         <v>-46.6211865</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="P16">
+      <c r="P17" s="3">
         <v>14</v>
       </c>
-      <c r="Q16">
+      <c r="Q17" s="3">
         <v>0</v>
       </c>
-      <c r="R16">
+      <c r="R17" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E17">
+      <c r="E18" s="3">
         <v>287199</v>
       </c>
-      <c r="F17">
+      <c r="F18" s="3">
         <v>874924</v>
       </c>
-      <c r="G17">
+      <c r="G18" s="3">
         <v>587725</v>
       </c>
-      <c r="H17">
+      <c r="H18" s="3">
         <v>311</v>
       </c>
-      <c r="I17">
+      <c r="I18" s="3">
         <v>12256</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M17">
+      <c r="M18" s="3">
         <v>-30.03314005</v>
       </c>
-      <c r="N17">
+      <c r="N18" s="3">
         <v>-51.220713191429589</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P17">
+      <c r="P18" s="3">
         <v>1</v>
       </c>
-      <c r="Q17">
+      <c r="Q18" s="3">
         <v>3</v>
       </c>
-      <c r="R17">
+      <c r="R18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E18">
+      <c r="E19" s="3">
         <v>752460</v>
       </c>
-      <c r="F18">
+      <c r="F19" s="3">
         <v>811580</v>
       </c>
-      <c r="G18">
+      <c r="G19" s="3">
         <v>59120</v>
       </c>
-      <c r="H18">
+      <c r="H19" s="3">
         <v>178</v>
       </c>
-      <c r="I18">
+      <c r="I19" s="3">
         <v>16235</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M18">
+      <c r="M19" s="3">
         <v>-22.893462499999998</v>
       </c>
-      <c r="N18">
+      <c r="N19" s="3">
         <v>-43.1237852</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="P18">
+      <c r="P19" s="3">
         <v>0</v>
       </c>
-      <c r="Q18">
+      <c r="Q19" s="3">
         <v>1</v>
       </c>
-      <c r="R18">
+      <c r="R19" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E19">
+      <c r="E20" s="3">
         <v>161610</v>
       </c>
-      <c r="F19">
+      <c r="F20" s="3">
         <v>672160</v>
       </c>
-      <c r="G19">
+      <c r="G20" s="3">
         <v>510550</v>
       </c>
-      <c r="H19">
+      <c r="H20" s="3">
         <v>401</v>
       </c>
-      <c r="I19">
+      <c r="I20" s="3">
         <v>18823</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M19">
+      <c r="M20" s="3">
         <v>-23.712762399999999</v>
       </c>
-      <c r="N19">
+      <c r="N20" s="3">
         <v>-46.525777300000001</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="P19">
+      <c r="P20" s="3">
         <v>13</v>
       </c>
-      <c r="Q19">
+      <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R19">
+      <c r="R20" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E20">
+      <c r="E21" s="3">
         <v>465732</v>
       </c>
-      <c r="F20">
+      <c r="F21" s="3">
         <v>552997</v>
       </c>
-      <c r="G20">
+      <c r="G21" s="3">
         <v>87265</v>
       </c>
-      <c r="H20">
+      <c r="H21" s="3">
         <v>159</v>
       </c>
-      <c r="I20">
+      <c r="I21" s="3">
         <v>10122</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M20">
+      <c r="M21" s="3">
         <v>-28.271100100000002</v>
       </c>
-      <c r="N20">
+      <c r="N21" s="3">
         <v>-52.409576399999999</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O21" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="P20">
+      <c r="P21" s="3">
         <v>17</v>
       </c>
-      <c r="Q20">
+      <c r="Q21" s="3">
         <v>1</v>
       </c>
-      <c r="R20">
+      <c r="R21" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E21">
+      <c r="E22" s="3">
         <v>673320</v>
       </c>
-      <c r="F21">
+      <c r="F22" s="3">
         <v>791460</v>
       </c>
-      <c r="G21">
+      <c r="G22" s="3">
         <v>118140</v>
       </c>
-      <c r="H21">
+      <c r="H22" s="3">
         <v>298</v>
       </c>
-      <c r="I21">
+      <c r="I22" s="3">
         <v>15482</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M21">
+      <c r="M22" s="3">
         <v>-22.931191599999998</v>
       </c>
-      <c r="N21">
+      <c r="N22" s="3">
         <v>-47.042334199999999</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P21">
+      <c r="P22" s="3">
         <v>7</v>
       </c>
-      <c r="Q21">
+      <c r="Q22" s="3">
         <v>4</v>
       </c>
-      <c r="R21">
+      <c r="R22" s="3">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>